--- a/biology/Médecine/Médaille_Elizabeth-Blackwell/Médaille_Elizabeth-Blackwell.xlsx
+++ b/biology/Médecine/Médaille_Elizabeth-Blackwell/Médaille_Elizabeth-Blackwell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Elizabeth-Blackwell</t>
+          <t>Médaille_Elizabeth-Blackwell</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La médaille Elizabeth Blackwell est décernée chaque année par l'American Medical Women's Association (en). La médaille est nommée en l'honneur d'Elizabeth Blackwell, première femme à recevoir un diplôme de médecine aux États-Unis et pionnière dans la promotion de l'éducation des femmes en médecine. Créée par Elise S. L'Esperance en 1949, 100 ans après que Blackwell a obtenu son diplôme de médecine[1], la médaille est décernée à une femme médecin "qui a apporté la plus grande contribution à la cause des femmes dans le domaine de la médecine." Avant 1993, la médaille n'était décernée qu'aux membres de l'AMWA[2] 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La médaille Elizabeth Blackwell est décernée chaque année par l'American Medical Women's Association (en). La médaille est nommée en l'honneur d'Elizabeth Blackwell, première femme à recevoir un diplôme de médecine aux États-Unis et pionnière dans la promotion de l'éducation des femmes en médecine. Créée par Elise S. L'Esperance en 1949, 100 ans après que Blackwell a obtenu son diplôme de médecine, la médaille est décernée à une femme médecin "qui a apporté la plus grande contribution à la cause des femmes dans le domaine de la médecine." Avant 1993, la médaille n'était décernée qu'aux membres de l'AMWA 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_Elizabeth-Blackwell</t>
+          <t>Médaille_Elizabeth-Blackwell</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Récipiendaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Source: AMWA 
 </t>
